--- a/data/pca/factorExposure/factorExposure_2010-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-19.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01517630890333163</v>
+        <v>-0.01714139433659368</v>
       </c>
       <c r="C2">
-        <v>0.002853995545869186</v>
+        <v>0.001077324432171096</v>
       </c>
       <c r="D2">
-        <v>0.01066851576593992</v>
+        <v>-0.008080548627415845</v>
       </c>
       <c r="E2">
-        <v>0.01091891188092157</v>
+        <v>-0.0003510484128313922</v>
       </c>
       <c r="F2">
-        <v>0.02088270151411514</v>
+        <v>-0.01062455427051492</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.115393838232849</v>
+        <v>-0.09331891061936516</v>
       </c>
       <c r="C4">
-        <v>-0.0624815406903242</v>
+        <v>0.01660291255247084</v>
       </c>
       <c r="D4">
-        <v>0.06516299229731463</v>
+        <v>-0.08379718439079957</v>
       </c>
       <c r="E4">
-        <v>-0.004444119995341535</v>
+        <v>0.03063888580036584</v>
       </c>
       <c r="F4">
-        <v>0.02112200235475856</v>
+        <v>0.03227974061614463</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1250278871045484</v>
+        <v>-0.1532298409779943</v>
       </c>
       <c r="C6">
-        <v>-0.01620192797512332</v>
+        <v>0.02477509448162293</v>
       </c>
       <c r="D6">
-        <v>0.03361925748743179</v>
+        <v>0.02121951159372526</v>
       </c>
       <c r="E6">
-        <v>0.02576718233536329</v>
+        <v>0.00971438853487199</v>
       </c>
       <c r="F6">
-        <v>-0.05868435070669976</v>
+        <v>0.04143812369234091</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06539389545517883</v>
+        <v>-0.05954924779038627</v>
       </c>
       <c r="C7">
-        <v>-0.04004904297541821</v>
+        <v>-0.0006618485050137902</v>
       </c>
       <c r="D7">
-        <v>0.07842613353672746</v>
+        <v>-0.05212162207059441</v>
       </c>
       <c r="E7">
-        <v>0.02572634351809702</v>
+        <v>0.0150764167513785</v>
       </c>
       <c r="F7">
-        <v>0.05064433036836752</v>
+        <v>0.05275515302729845</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05405156298217914</v>
+        <v>-0.05844136368643996</v>
       </c>
       <c r="C8">
-        <v>-0.02906061158295677</v>
+        <v>-0.01289702452780213</v>
       </c>
       <c r="D8">
-        <v>0.05132631446457442</v>
+        <v>-0.03095533192200914</v>
       </c>
       <c r="E8">
-        <v>-0.01332528631203378</v>
+        <v>0.01516189090466269</v>
       </c>
       <c r="F8">
-        <v>-0.009759096203837511</v>
+        <v>-0.02996064526427287</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07868456446019967</v>
+        <v>-0.07117352078221921</v>
       </c>
       <c r="C9">
-        <v>-0.03997459396953964</v>
+        <v>0.01269370917107159</v>
       </c>
       <c r="D9">
-        <v>0.05014590908641153</v>
+        <v>-0.08332884587774171</v>
       </c>
       <c r="E9">
-        <v>-0.0146880208857296</v>
+        <v>0.02501438251520069</v>
       </c>
       <c r="F9">
-        <v>0.01794954923528426</v>
+        <v>0.05392184237903784</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1189551026590094</v>
+        <v>-0.09448217840295499</v>
       </c>
       <c r="C10">
-        <v>0.1341350821832599</v>
+        <v>0.01718319767429793</v>
       </c>
       <c r="D10">
-        <v>-0.08838699110478145</v>
+        <v>0.1713603739880883</v>
       </c>
       <c r="E10">
-        <v>0.02300573641108673</v>
+        <v>-0.03897795181311788</v>
       </c>
       <c r="F10">
-        <v>0.02578199822515162</v>
+        <v>-0.05259781628280602</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0750262143124332</v>
+        <v>-0.08758414296927305</v>
       </c>
       <c r="C11">
-        <v>-0.03231046831763584</v>
+        <v>0.01202797900381752</v>
       </c>
       <c r="D11">
-        <v>0.07569923930328815</v>
+        <v>-0.1146973355089564</v>
       </c>
       <c r="E11">
-        <v>-0.02120154715379102</v>
+        <v>0.04900489839421258</v>
       </c>
       <c r="F11">
-        <v>0.008020616613582107</v>
+        <v>0.01994717226407084</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07110495850415853</v>
+        <v>-0.09251149563457121</v>
       </c>
       <c r="C12">
-        <v>-0.02885616238583423</v>
+        <v>0.009834651925186014</v>
       </c>
       <c r="D12">
-        <v>0.08075107413883262</v>
+        <v>-0.1221997375918202</v>
       </c>
       <c r="E12">
-        <v>-0.05349178568113885</v>
+        <v>0.04819622508722202</v>
       </c>
       <c r="F12">
-        <v>0.0303279390448419</v>
+        <v>0.02164260560642404</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02876851385517159</v>
+        <v>-0.04262894287034245</v>
       </c>
       <c r="C13">
-        <v>-0.02056016002400835</v>
+        <v>0.003851043398125859</v>
       </c>
       <c r="D13">
-        <v>0.0189030841153549</v>
+        <v>-0.04788017082637258</v>
       </c>
       <c r="E13">
-        <v>0.01808423853829017</v>
+        <v>-0.01157090890804226</v>
       </c>
       <c r="F13">
-        <v>0.01642600896622201</v>
+        <v>0.01257083530076357</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03807096441531282</v>
+        <v>-0.02214619479175572</v>
       </c>
       <c r="C14">
-        <v>-0.0223809210241981</v>
+        <v>0.0143982040613689</v>
       </c>
       <c r="D14">
-        <v>0.02396253351489853</v>
+        <v>-0.03277637068086069</v>
       </c>
       <c r="E14">
-        <v>-0.01717869259688311</v>
+        <v>0.01903135109120719</v>
       </c>
       <c r="F14">
-        <v>0.002823767309626684</v>
+        <v>0.01885738217565924</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01599759235278388</v>
+        <v>-0.03168334957016511</v>
       </c>
       <c r="C15">
-        <v>-0.01064314872105307</v>
+        <v>0.005554742494587776</v>
       </c>
       <c r="D15">
-        <v>0.008688232302955205</v>
+        <v>-0.04500495460591013</v>
       </c>
       <c r="E15">
-        <v>0.04911302307387307</v>
+        <v>0.008845735278416877</v>
       </c>
       <c r="F15">
-        <v>0.006494562944488328</v>
+        <v>0.0306892582705609</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07983158254265976</v>
+        <v>-0.07380168551451914</v>
       </c>
       <c r="C16">
-        <v>-0.02376456910533827</v>
+        <v>0.003571180089591939</v>
       </c>
       <c r="D16">
-        <v>0.08132619672379188</v>
+        <v>-0.1169516501053384</v>
       </c>
       <c r="E16">
-        <v>-0.03449405069163775</v>
+        <v>0.063550205251953</v>
       </c>
       <c r="F16">
-        <v>0.001322377634042874</v>
+        <v>0.02999158004740843</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02248876615866145</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003573357736044593</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01984866165078712</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01004299343907506</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02082512283235732</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04832845422348456</v>
+        <v>-0.06103879272287787</v>
       </c>
       <c r="C20">
-        <v>-0.05202387839025013</v>
+        <v>0.001493751750642568</v>
       </c>
       <c r="D20">
-        <v>0.01125993525220919</v>
+        <v>-0.07477612529597445</v>
       </c>
       <c r="E20">
-        <v>0.01740058958766325</v>
+        <v>0.05605208994024794</v>
       </c>
       <c r="F20">
-        <v>0.02710765087981087</v>
+        <v>0.02755509358706359</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02799333646285276</v>
+        <v>-0.03895468997009064</v>
       </c>
       <c r="C21">
-        <v>-0.02452644522509661</v>
+        <v>0.007130669473227785</v>
       </c>
       <c r="D21">
-        <v>-0.00682919557641053</v>
+        <v>-0.0372392980828426</v>
       </c>
       <c r="E21">
-        <v>-0.01959740249482339</v>
+        <v>-0.007631455125301739</v>
       </c>
       <c r="F21">
-        <v>-0.003666837337407337</v>
+        <v>-0.01955881613588045</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03035169705564486</v>
+        <v>-0.04223425563914403</v>
       </c>
       <c r="C22">
-        <v>0.002199184761461747</v>
+        <v>0.0001284265814964003</v>
       </c>
       <c r="D22">
-        <v>-0.006817480627865288</v>
+        <v>-0.001992065176243398</v>
       </c>
       <c r="E22">
-        <v>0.6310096911663234</v>
+        <v>0.02933352878175283</v>
       </c>
       <c r="F22">
-        <v>0.08283232119072617</v>
+        <v>-0.006894868744704455</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03062309207976567</v>
+        <v>-0.04229418779774594</v>
       </c>
       <c r="C23">
-        <v>0.002112030110805709</v>
+        <v>0.0001527162085119307</v>
       </c>
       <c r="D23">
-        <v>-0.004921996270887679</v>
+        <v>-0.00211451339392972</v>
       </c>
       <c r="E23">
-        <v>0.6341446428098712</v>
+        <v>0.02968317464591276</v>
       </c>
       <c r="F23">
-        <v>0.08197260368645243</v>
+        <v>-0.006429972492027378</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08038873503336944</v>
+        <v>-0.08024967889002567</v>
       </c>
       <c r="C24">
-        <v>-0.03925938396253181</v>
+        <v>0.003845960864626173</v>
       </c>
       <c r="D24">
-        <v>0.06410667696473779</v>
+        <v>-0.1180114958744614</v>
       </c>
       <c r="E24">
-        <v>-0.03368119998639041</v>
+        <v>0.05125973381912569</v>
       </c>
       <c r="F24">
-        <v>0.01203832006342814</v>
+        <v>0.02269567071315165</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08611951669299406</v>
+        <v>-0.08493039741584582</v>
       </c>
       <c r="C25">
-        <v>-0.0291717055141771</v>
+        <v>0.005878097638293145</v>
       </c>
       <c r="D25">
-        <v>0.07833212724221239</v>
+        <v>-0.1064936826445688</v>
       </c>
       <c r="E25">
-        <v>-0.05785595861175957</v>
+        <v>0.0344572600757211</v>
       </c>
       <c r="F25">
-        <v>0.02605644984113299</v>
+        <v>0.02978384545261051</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04065339631733905</v>
+        <v>-0.05531705375042376</v>
       </c>
       <c r="C26">
-        <v>-0.002896395455076169</v>
+        <v>0.01508016224909928</v>
       </c>
       <c r="D26">
-        <v>-0.008019641360620723</v>
+        <v>-0.03632022347108137</v>
       </c>
       <c r="E26">
-        <v>0.01499800428257215</v>
+        <v>0.02859070410544457</v>
       </c>
       <c r="F26">
-        <v>-0.02270776702011137</v>
+        <v>-0.009386321882090438</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1401920811411092</v>
+        <v>-0.1427914183404427</v>
       </c>
       <c r="C28">
-        <v>0.2631449760199019</v>
+        <v>0.01541953363628777</v>
       </c>
       <c r="D28">
-        <v>-0.131283126413839</v>
+        <v>0.2670977935370675</v>
       </c>
       <c r="E28">
-        <v>-0.01408815738605929</v>
+        <v>-0.06886698371661393</v>
       </c>
       <c r="F28">
-        <v>-0.04076685232309429</v>
+        <v>0.02984261985105272</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03224583702825019</v>
+        <v>-0.02730386245323505</v>
       </c>
       <c r="C29">
-        <v>-0.008921641437798005</v>
+        <v>0.008694888335075562</v>
       </c>
       <c r="D29">
-        <v>0.02962330614470375</v>
+        <v>-0.03101876283141063</v>
       </c>
       <c r="E29">
-        <v>-0.02388452140371285</v>
+        <v>0.01208350022535126</v>
       </c>
       <c r="F29">
-        <v>0.04119130388835503</v>
+        <v>-0.01153824409552535</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09942230437330717</v>
+        <v>-0.0633628269452178</v>
       </c>
       <c r="C30">
-        <v>-0.04544113945166019</v>
+        <v>0.005029481682173039</v>
       </c>
       <c r="D30">
-        <v>0.1019221729194969</v>
+        <v>-0.08487994408754808</v>
       </c>
       <c r="E30">
-        <v>-0.05571772481277012</v>
+        <v>0.02471417526684896</v>
       </c>
       <c r="F30">
-        <v>-0.03409905454438423</v>
+        <v>0.1056187407396843</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02962710634997289</v>
+        <v>-0.04848699750000628</v>
       </c>
       <c r="C31">
-        <v>-0.03469082997914872</v>
+        <v>0.01499923066158551</v>
       </c>
       <c r="D31">
-        <v>0.02329452800128818</v>
+        <v>-0.02808616491396057</v>
       </c>
       <c r="E31">
-        <v>0.0003119904656011286</v>
+        <v>0.02738496984157489</v>
       </c>
       <c r="F31">
-        <v>0.01744941267041785</v>
+        <v>-0.003461438373760672</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05924583664850559</v>
+        <v>-0.04800364689110431</v>
       </c>
       <c r="C32">
-        <v>-0.02493184967360573</v>
+        <v>-8.22549489960848e-06</v>
       </c>
       <c r="D32">
-        <v>0.0006328841672090379</v>
+        <v>-0.03098918651682549</v>
       </c>
       <c r="E32">
-        <v>-0.07891629079007785</v>
+        <v>0.02984234723854184</v>
       </c>
       <c r="F32">
-        <v>-0.06802130715044175</v>
+        <v>0.001825292680311031</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08660139612047263</v>
+        <v>-0.09038623115151696</v>
       </c>
       <c r="C33">
-        <v>-0.01339415357466788</v>
+        <v>0.009148858639020287</v>
       </c>
       <c r="D33">
-        <v>0.09552809578573483</v>
+        <v>-0.09374555679259354</v>
       </c>
       <c r="E33">
-        <v>-0.0249229951639858</v>
+        <v>0.04717615284098987</v>
       </c>
       <c r="F33">
-        <v>0.02034512855394284</v>
+        <v>0.042106152913322</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06789312464926513</v>
+        <v>-0.06800144497638266</v>
       </c>
       <c r="C34">
-        <v>-0.02051172930561958</v>
+        <v>0.01216144892722088</v>
       </c>
       <c r="D34">
-        <v>0.05778215554822216</v>
+        <v>-0.09836206546716465</v>
       </c>
       <c r="E34">
-        <v>-0.03078266082171199</v>
+        <v>0.03588821452984275</v>
       </c>
       <c r="F34">
-        <v>0.01363390419717583</v>
+        <v>0.04191498914408685</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01012639016919001</v>
+        <v>-0.02460466530457338</v>
       </c>
       <c r="C35">
-        <v>-0.006654142089978572</v>
+        <v>0.002429926740692274</v>
       </c>
       <c r="D35">
-        <v>0.01829484558371023</v>
+        <v>-0.01165928742937984</v>
       </c>
       <c r="E35">
-        <v>0.0009549879529325918</v>
+        <v>0.01157638016277115</v>
       </c>
       <c r="F35">
-        <v>0.02291152378620129</v>
+        <v>0.01006348175566078</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02484280899276755</v>
+        <v>-0.02420301985127342</v>
       </c>
       <c r="C36">
-        <v>-0.01028751350292992</v>
+        <v>0.007318007786137047</v>
       </c>
       <c r="D36">
-        <v>0.0152107556398428</v>
+        <v>-0.03812482210756241</v>
       </c>
       <c r="E36">
-        <v>0.003253021383449906</v>
+        <v>0.01762921075449695</v>
       </c>
       <c r="F36">
-        <v>0.0002510485150276625</v>
+        <v>0.01098530107739515</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008750868245222832</v>
+        <v>-0.00165374597649938</v>
       </c>
       <c r="C38">
-        <v>-0.007741602765361984</v>
+        <v>0.0002729122593782632</v>
       </c>
       <c r="D38">
-        <v>0.01248787286684247</v>
+        <v>-0.001211762748238973</v>
       </c>
       <c r="E38">
-        <v>0.02215138240045809</v>
+        <v>0.00150846454448071</v>
       </c>
       <c r="F38">
-        <v>0.03100573412937703</v>
+        <v>-0.0005507416666025817</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1144089185816723</v>
+        <v>-0.108779246399314</v>
       </c>
       <c r="C39">
-        <v>-0.04351102526380762</v>
+        <v>0.01735043063286033</v>
       </c>
       <c r="D39">
-        <v>0.1339805137427781</v>
+        <v>-0.1532939191802251</v>
       </c>
       <c r="E39">
-        <v>-0.1356433623308832</v>
+        <v>0.06139867066122705</v>
       </c>
       <c r="F39">
-        <v>0.03406633153649104</v>
+        <v>0.0287624377876205</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008684162768147876</v>
+        <v>-0.03740079970952156</v>
       </c>
       <c r="C40">
-        <v>-0.05046993985260208</v>
+        <v>0.00730124400690452</v>
       </c>
       <c r="D40">
-        <v>0.01673942867056001</v>
+        <v>-0.03122436489381917</v>
       </c>
       <c r="E40">
-        <v>0.06507849665133976</v>
+        <v>0.00361227472669713</v>
       </c>
       <c r="F40">
-        <v>0.04866417936307562</v>
+        <v>-0.0123668842014193</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02724510459295938</v>
+        <v>-0.02615550891955257</v>
       </c>
       <c r="C41">
-        <v>-0.01176587687582949</v>
+        <v>0.006640788093285678</v>
       </c>
       <c r="D41">
-        <v>0.01094352589300973</v>
+        <v>-0.01133557936245118</v>
       </c>
       <c r="E41">
-        <v>-0.005824671846997173</v>
+        <v>0.01235476316600068</v>
       </c>
       <c r="F41">
-        <v>0.01671672731249417</v>
+        <v>-0.009440942826713551</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03769799266063856</v>
+        <v>-0.04086614447744401</v>
       </c>
       <c r="C43">
-        <v>0.001366289102776819</v>
+        <v>0.006750634470730044</v>
       </c>
       <c r="D43">
-        <v>0.02946245268535201</v>
+        <v>-0.02064495727127115</v>
       </c>
       <c r="E43">
-        <v>-0.000524369506269536</v>
+        <v>0.02477837762026732</v>
       </c>
       <c r="F43">
-        <v>0.00626607207923577</v>
+        <v>-0.01146148865687048</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1160112749119316</v>
+        <v>-0.07231025255343612</v>
       </c>
       <c r="C44">
-        <v>-0.076664941265682</v>
+        <v>0.02188551723723499</v>
       </c>
       <c r="D44">
-        <v>0.1523966919960604</v>
+        <v>-0.1008849293898082</v>
       </c>
       <c r="E44">
-        <v>0.1084114291020517</v>
+        <v>0.06879841031642468</v>
       </c>
       <c r="F44">
-        <v>0.1189260488711437</v>
+        <v>0.1690544342147781</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02217041818830603</v>
+        <v>-0.0220449084525366</v>
       </c>
       <c r="C46">
-        <v>0.01671947561871085</v>
+        <v>0.003646055805611594</v>
       </c>
       <c r="D46">
-        <v>0.02164986614138216</v>
+        <v>-0.01259849786000997</v>
       </c>
       <c r="E46">
-        <v>0.02998389312598604</v>
+        <v>0.02342728121763454</v>
       </c>
       <c r="F46">
-        <v>0.02901705955479851</v>
+        <v>0.00138829792372719</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03764177853869773</v>
+        <v>-0.05191810606348449</v>
       </c>
       <c r="C47">
-        <v>-0.02059930981885134</v>
+        <v>0.003252645141263629</v>
       </c>
       <c r="D47">
-        <v>0.01856141341105652</v>
+        <v>-0.01270733611614451</v>
       </c>
       <c r="E47">
-        <v>-0.009011318746464424</v>
+        <v>0.02241958381966779</v>
       </c>
       <c r="F47">
-        <v>0.007639444296394925</v>
+        <v>-0.04445278586266055</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04205156606764429</v>
+        <v>-0.04787653744548389</v>
       </c>
       <c r="C48">
-        <v>-0.009669775556259691</v>
+        <v>0.002984393714640769</v>
       </c>
       <c r="D48">
-        <v>0.01345321819449972</v>
+        <v>-0.04804440478642373</v>
       </c>
       <c r="E48">
-        <v>-0.006858470218697708</v>
+        <v>-0.004350962693461904</v>
       </c>
       <c r="F48">
-        <v>0.02011820324052103</v>
+        <v>0.01113509258370203</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2236020284482021</v>
+        <v>-0.2028310835882898</v>
       </c>
       <c r="C49">
-        <v>-0.01432172753866613</v>
+        <v>0.01771688522825775</v>
       </c>
       <c r="D49">
-        <v>-0.06892541897232575</v>
+        <v>0.0114226422689525</v>
       </c>
       <c r="E49">
-        <v>-0.02443243718607432</v>
+        <v>0.03295039087411412</v>
       </c>
       <c r="F49">
-        <v>0.02933260945428579</v>
+        <v>0.03316010433351471</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0378922038791456</v>
+        <v>-0.04818743170361749</v>
       </c>
       <c r="C50">
-        <v>-0.02667810505250877</v>
+        <v>0.01105721566322593</v>
       </c>
       <c r="D50">
-        <v>0.01162828987324253</v>
+        <v>-0.02688380698540761</v>
       </c>
       <c r="E50">
-        <v>-0.01212754890717546</v>
+        <v>0.02935258754592257</v>
       </c>
       <c r="F50">
-        <v>0.01001115965228787</v>
+        <v>0.00923219535756601</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01408933201931802</v>
+        <v>-0.002451878931846616</v>
       </c>
       <c r="C51">
-        <v>0.02771695323429902</v>
+        <v>0.0006415848218699272</v>
       </c>
       <c r="D51">
-        <v>0.001278327128587058</v>
+        <v>0.00291559625414014</v>
       </c>
       <c r="E51">
-        <v>0.009257615489990498</v>
+        <v>-0.0004709254299868718</v>
       </c>
       <c r="F51">
-        <v>0.009940212119447117</v>
+        <v>0.005577366666094777</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09878839212657062</v>
+        <v>-0.1449950902101522</v>
       </c>
       <c r="C52">
-        <v>-0.07704571089858075</v>
+        <v>0.01355205384555171</v>
       </c>
       <c r="D52">
-        <v>0.05525969821703515</v>
+        <v>-0.05175201667321498</v>
       </c>
       <c r="E52">
-        <v>-0.02122078749643085</v>
+        <v>0.02396180392130797</v>
       </c>
       <c r="F52">
-        <v>0.03502930232520865</v>
+        <v>0.03552220926405929</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.159234938218111</v>
+        <v>-0.1741699067635865</v>
       </c>
       <c r="C53">
-        <v>-0.04389895411586918</v>
+        <v>0.01662343050668322</v>
       </c>
       <c r="D53">
-        <v>0.02511382696589688</v>
+        <v>-0.01163625937865461</v>
       </c>
       <c r="E53">
-        <v>0.01515606609747878</v>
+        <v>0.03604766075120165</v>
       </c>
       <c r="F53">
-        <v>0.04723131663715865</v>
+        <v>0.06610018324936368</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04923666811157984</v>
+        <v>-0.02139498048232456</v>
       </c>
       <c r="C54">
-        <v>-0.04934871230216811</v>
+        <v>0.01251137507317473</v>
       </c>
       <c r="D54">
-        <v>0.03874664985467931</v>
+        <v>-0.0334615484561951</v>
       </c>
       <c r="E54">
-        <v>0.02477140231193489</v>
+        <v>0.01545635941850281</v>
       </c>
       <c r="F54">
-        <v>0.01227693747828741</v>
+        <v>-0.006063115241627403</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08344341103958264</v>
+        <v>-0.1141567201576188</v>
       </c>
       <c r="C55">
-        <v>0.0005331289478302721</v>
+        <v>0.01516607020279565</v>
       </c>
       <c r="D55">
-        <v>0.0727737371402634</v>
+        <v>-0.01145825410811674</v>
       </c>
       <c r="E55">
-        <v>-0.02200775093490763</v>
+        <v>0.03043688061990959</v>
       </c>
       <c r="F55">
-        <v>0.03016336194360738</v>
+        <v>0.0467164403630548</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1530678925955932</v>
+        <v>-0.1779899492385374</v>
       </c>
       <c r="C56">
-        <v>-0.04389577470540402</v>
+        <v>0.01390836860270478</v>
       </c>
       <c r="D56">
-        <v>0.05784042734109158</v>
+        <v>-0.007088611132671274</v>
       </c>
       <c r="E56">
-        <v>-0.01198281181395749</v>
+        <v>0.04038703688459833</v>
       </c>
       <c r="F56">
-        <v>0.08803097173601557</v>
+        <v>0.04244846225363211</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05020638996909038</v>
+        <v>-0.04678007761570691</v>
       </c>
       <c r="C58">
-        <v>-0.03705505157536667</v>
+        <v>0.001998631333556943</v>
       </c>
       <c r="D58">
-        <v>0.01807655184127259</v>
+        <v>-0.06525991983097093</v>
       </c>
       <c r="E58">
-        <v>0.05498205925227946</v>
+        <v>0.02314833636731744</v>
       </c>
       <c r="F58">
-        <v>0.0206199151493478</v>
+        <v>-0.04427444238162429</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1927396709898533</v>
+        <v>-0.1716020347761866</v>
       </c>
       <c r="C59">
-        <v>0.2261323470962053</v>
+        <v>0.01655872664684332</v>
       </c>
       <c r="D59">
-        <v>-0.09710433665225464</v>
+        <v>0.2242591465331084</v>
       </c>
       <c r="E59">
-        <v>-0.02679402415500944</v>
+        <v>-0.04947279570314438</v>
       </c>
       <c r="F59">
-        <v>-0.01370114632573158</v>
+        <v>-0.03402952784928175</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2425039920365741</v>
+        <v>-0.2367502974682612</v>
       </c>
       <c r="C60">
-        <v>-0.117917616185242</v>
+        <v>-0.003848395005691665</v>
       </c>
       <c r="D60">
-        <v>-0.001018358115669345</v>
+        <v>-0.04682274539808205</v>
       </c>
       <c r="E60">
-        <v>-0.03667280168991054</v>
+        <v>0.007286254258441241</v>
       </c>
       <c r="F60">
-        <v>0.1030663506861807</v>
+        <v>-0.03031386799785662</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1073877913117516</v>
+        <v>-0.08343842585212004</v>
       </c>
       <c r="C61">
-        <v>-0.02428187266399458</v>
+        <v>0.01367449099497099</v>
       </c>
       <c r="D61">
-        <v>0.09434000759755372</v>
+        <v>-0.1129294644379622</v>
       </c>
       <c r="E61">
-        <v>-0.08360260660145452</v>
+        <v>0.04234874166479537</v>
       </c>
       <c r="F61">
-        <v>0.05938791845461862</v>
+        <v>0.01474051623961034</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.151719771552465</v>
+        <v>-0.1703377596286685</v>
       </c>
       <c r="C62">
-        <v>-0.02994028527797664</v>
+        <v>0.01779018915267842</v>
       </c>
       <c r="D62">
-        <v>0.04243314412109596</v>
+        <v>-0.01106327449494506</v>
       </c>
       <c r="E62">
-        <v>0.005644691049381597</v>
+        <v>0.03774794273346824</v>
       </c>
       <c r="F62">
-        <v>0.05535380536226021</v>
+        <v>0.02306630254295616</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04067658961220676</v>
+        <v>-0.04281702360149164</v>
       </c>
       <c r="C63">
-        <v>-0.005964886213941746</v>
+        <v>0.003103785262533758</v>
       </c>
       <c r="D63">
-        <v>0.01791876176852375</v>
+        <v>-0.05155465843135837</v>
       </c>
       <c r="E63">
-        <v>-0.008084437029727899</v>
+        <v>0.02297843515755817</v>
       </c>
       <c r="F63">
-        <v>-0.03477939123584278</v>
+        <v>0.007206738820362514</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09512972920692118</v>
+        <v>-0.112058478342533</v>
       </c>
       <c r="C64">
-        <v>-0.03359700152507046</v>
+        <v>0.01170220185957952</v>
       </c>
       <c r="D64">
-        <v>0.02852718833280572</v>
+        <v>-0.04298102223263162</v>
       </c>
       <c r="E64">
-        <v>5.92492089285328e-05</v>
+        <v>0.02202923222503615</v>
       </c>
       <c r="F64">
-        <v>0.07421049622702851</v>
+        <v>0.02392770214134344</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1158918185914983</v>
+        <v>-0.1444306256264976</v>
       </c>
       <c r="C65">
-        <v>-0.01308579012619233</v>
+        <v>0.03131072167830429</v>
       </c>
       <c r="D65">
-        <v>0.01928357847051851</v>
+        <v>0.04229116883804956</v>
       </c>
       <c r="E65">
-        <v>-0.01156535240505709</v>
+        <v>0.0004098869517683698</v>
       </c>
       <c r="F65">
-        <v>-0.06414545135060125</v>
+        <v>0.04252890423524019</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.132407774670884</v>
+        <v>-0.129934918455967</v>
       </c>
       <c r="C66">
-        <v>-0.05938543545328911</v>
+        <v>0.01516492851954005</v>
       </c>
       <c r="D66">
-        <v>0.141149000080722</v>
+        <v>-0.1410985475662219</v>
       </c>
       <c r="E66">
-        <v>-0.1155917974133882</v>
+        <v>0.06826694800311854</v>
       </c>
       <c r="F66">
-        <v>0.05337007356307921</v>
+        <v>0.0331399199976643</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05708260201173931</v>
+        <v>-0.06240746819661504</v>
       </c>
       <c r="C67">
-        <v>0.03215252614253453</v>
+        <v>0.003296220774302503</v>
       </c>
       <c r="D67">
-        <v>0.06253767754996194</v>
+        <v>-0.05282945482402494</v>
       </c>
       <c r="E67">
-        <v>0.03046698902729886</v>
+        <v>0.01872860344358582</v>
       </c>
       <c r="F67">
-        <v>-0.004935069897557923</v>
+        <v>-0.03819843791932676</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1208476037690689</v>
+        <v>-0.1161502086601571</v>
       </c>
       <c r="C68">
-        <v>0.2203111050974876</v>
+        <v>0.02626360386943566</v>
       </c>
       <c r="D68">
-        <v>-0.1173842133397424</v>
+        <v>0.2636399718573368</v>
       </c>
       <c r="E68">
-        <v>-0.02598353009229396</v>
+        <v>-0.0870907928783224</v>
       </c>
       <c r="F68">
-        <v>-0.05401244654283541</v>
+        <v>0.03332482491271906</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03128750155133868</v>
+        <v>-0.03938226723249889</v>
       </c>
       <c r="C69">
-        <v>0.0319313552932398</v>
+        <v>0.001020443771449832</v>
       </c>
       <c r="D69">
-        <v>0.01910597041405647</v>
+        <v>-0.009331803240207642</v>
       </c>
       <c r="E69">
-        <v>0.007566365588787206</v>
+        <v>0.02437359976935725</v>
       </c>
       <c r="F69">
-        <v>0.01225508547644994</v>
+        <v>-0.01215989681685625</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03167096220338854</v>
+        <v>-0.06311101949618209</v>
       </c>
       <c r="C70">
-        <v>0.0184463016895862</v>
+        <v>-0.02792085802798819</v>
       </c>
       <c r="D70">
-        <v>0.03496778029928563</v>
+        <v>-0.02737551176522605</v>
       </c>
       <c r="E70">
-        <v>-0.0355775959183192</v>
+        <v>-0.04752785331259577</v>
       </c>
       <c r="F70">
-        <v>0.04347066767071636</v>
+        <v>-0.2749028720754272</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.138337280615945</v>
+        <v>-0.1353330338460213</v>
       </c>
       <c r="C71">
-        <v>0.242152891493292</v>
+        <v>0.03035610088103302</v>
       </c>
       <c r="D71">
-        <v>-0.1241111620514613</v>
+        <v>0.2787374068038049</v>
       </c>
       <c r="E71">
-        <v>-0.01389566978388004</v>
+        <v>-0.0955316069031187</v>
       </c>
       <c r="F71">
-        <v>-0.01282664702206067</v>
+        <v>0.03957564061276868</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1426769715848366</v>
+        <v>-0.1405738488705149</v>
       </c>
       <c r="C72">
-        <v>-0.02268042274074682</v>
+        <v>0.02460737398675985</v>
       </c>
       <c r="D72">
-        <v>0.01907173724626786</v>
+        <v>-0.005169696485538601</v>
       </c>
       <c r="E72">
-        <v>0.01130137062926605</v>
+        <v>0.045305266090396</v>
       </c>
       <c r="F72">
-        <v>-0.002093806906702564</v>
+        <v>0.02332784967225044</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2201964265149342</v>
+        <v>-0.2039501419435877</v>
       </c>
       <c r="C73">
-        <v>0.002541789039090712</v>
+        <v>0.01169741664927015</v>
       </c>
       <c r="D73">
-        <v>0.04429890384987632</v>
+        <v>-0.01518919127823383</v>
       </c>
       <c r="E73">
-        <v>-0.06427221666049254</v>
+        <v>0.06218756608464652</v>
       </c>
       <c r="F73">
-        <v>0.1487820082662668</v>
+        <v>0.03706564665396505</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1168928698990902</v>
+        <v>-0.0946028730601748</v>
       </c>
       <c r="C74">
-        <v>-0.04537380788496431</v>
+        <v>0.01227720468714982</v>
       </c>
       <c r="D74">
-        <v>0.07708256041648641</v>
+        <v>-0.02065641145061268</v>
       </c>
       <c r="E74">
-        <v>0.004570643082786204</v>
+        <v>0.04826531661256751</v>
       </c>
       <c r="F74">
-        <v>0.04604269159463264</v>
+        <v>0.04672286507494602</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.112656967836824</v>
+        <v>-0.1297781172964452</v>
       </c>
       <c r="C75">
-        <v>-0.05203257572910239</v>
+        <v>0.02625681701189355</v>
       </c>
       <c r="D75">
-        <v>0.03810524328028237</v>
+        <v>-0.03438429873346462</v>
       </c>
       <c r="E75">
-        <v>-0.0006353654850638212</v>
+        <v>0.06090910144478957</v>
       </c>
       <c r="F75">
-        <v>0.02121821215320376</v>
+        <v>0.01464081966110762</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02357363654899979</v>
+        <v>-0.003963841861513578</v>
       </c>
       <c r="C76">
-        <v>0.01925144546011814</v>
+        <v>0.0009319564355488656</v>
       </c>
       <c r="D76">
-        <v>0.004489884860127892</v>
+        <v>0.002577202311811282</v>
       </c>
       <c r="E76">
-        <v>-0.008350053324834763</v>
+        <v>0.0008240294338278216</v>
       </c>
       <c r="F76">
-        <v>0.02230418833542592</v>
+        <v>0.004276266624271355</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0631019725750912</v>
+        <v>-0.07888351966866294</v>
       </c>
       <c r="C77">
-        <v>-0.05008242948964972</v>
+        <v>0.009605720429928667</v>
       </c>
       <c r="D77">
-        <v>0.01249626994204162</v>
+        <v>-0.1142079831987414</v>
       </c>
       <c r="E77">
-        <v>0.00500704244496107</v>
+        <v>0.03815626827630966</v>
       </c>
       <c r="F77">
-        <v>0.06299417944788516</v>
+        <v>0.03580708026405052</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.114246721127458</v>
+        <v>-0.1049276964918604</v>
       </c>
       <c r="C78">
-        <v>-0.0454395195767632</v>
+        <v>0.04138354969301671</v>
       </c>
       <c r="D78">
-        <v>0.1043481249041913</v>
+        <v>-0.1148777607078174</v>
       </c>
       <c r="E78">
-        <v>0.2631090138984086</v>
+        <v>0.08071879665995482</v>
       </c>
       <c r="F78">
-        <v>-0.2306132131501609</v>
+        <v>0.07726751106131134</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.13276421226747</v>
+        <v>-0.1645855304950237</v>
       </c>
       <c r="C79">
-        <v>-0.05685894278938126</v>
+        <v>0.02029723414842955</v>
       </c>
       <c r="D79">
-        <v>0.01558875640110203</v>
+        <v>-0.01915450582031071</v>
       </c>
       <c r="E79">
-        <v>-0.00625385526013865</v>
+        <v>0.0495584610192169</v>
       </c>
       <c r="F79">
-        <v>0.03676370860194765</v>
+        <v>0.007089274211786843</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07213548974427014</v>
+        <v>-0.08050998709229849</v>
       </c>
       <c r="C80">
-        <v>-0.02659923777180733</v>
+        <v>-0.0006565121171154481</v>
       </c>
       <c r="D80">
-        <v>0.1176163336186355</v>
+        <v>-0.05866171959646198</v>
       </c>
       <c r="E80">
-        <v>-0.03318408314976025</v>
+        <v>0.03629525663890856</v>
       </c>
       <c r="F80">
-        <v>0.06754089038833166</v>
+        <v>-0.01554362304016576</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1359156121036132</v>
+        <v>-0.1233145235766766</v>
       </c>
       <c r="C81">
-        <v>-0.06394252635705791</v>
+        <v>0.0302226503425261</v>
       </c>
       <c r="D81">
-        <v>0.05941810324052711</v>
+        <v>-0.01898502709114559</v>
       </c>
       <c r="E81">
-        <v>-0.001949939904799427</v>
+        <v>0.06018221000528823</v>
       </c>
       <c r="F81">
-        <v>0.04366209320742362</v>
+        <v>0.006288927608014121</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1569398558769833</v>
+        <v>-0.1640313284224935</v>
       </c>
       <c r="C82">
-        <v>-0.04154569602052609</v>
+        <v>0.02161223992167671</v>
       </c>
       <c r="D82">
-        <v>0.05333930774093409</v>
+        <v>-0.01575506970651698</v>
       </c>
       <c r="E82">
-        <v>-0.02979037576096745</v>
+        <v>0.03501810180486808</v>
       </c>
       <c r="F82">
-        <v>0.05574243934493144</v>
+        <v>0.06529586450412461</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08478782142113094</v>
+        <v>-0.06292664393934733</v>
       </c>
       <c r="C83">
-        <v>-0.1086306221098447</v>
+        <v>0.003394159233695437</v>
       </c>
       <c r="D83">
-        <v>0.0960410040731844</v>
+        <v>-0.04982989045727793</v>
       </c>
       <c r="E83">
-        <v>0.02624273811178876</v>
+        <v>0.004976261484728767</v>
       </c>
       <c r="F83">
-        <v>0.02572987315310366</v>
+        <v>-0.0422502060668843</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05589131522595721</v>
+        <v>-0.05907372754197052</v>
       </c>
       <c r="C84">
-        <v>0.05936304073736808</v>
+        <v>0.0110484964793872</v>
       </c>
       <c r="D84">
-        <v>-0.06680121246695997</v>
+        <v>-0.06424952981590673</v>
       </c>
       <c r="E84">
-        <v>-0.05066646640627828</v>
+        <v>0.002014906527597741</v>
       </c>
       <c r="F84">
-        <v>-0.004920745541167218</v>
+        <v>0.009718526244374687</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1228471042160925</v>
+        <v>-0.1387820183668023</v>
       </c>
       <c r="C85">
-        <v>-0.0420767048367274</v>
+        <v>0.02599813584815888</v>
       </c>
       <c r="D85">
-        <v>0.03438063332160231</v>
+        <v>-0.0155940105456863</v>
       </c>
       <c r="E85">
-        <v>-0.007776788584669056</v>
+        <v>0.04154707915100383</v>
       </c>
       <c r="F85">
-        <v>0.06756646126555989</v>
+        <v>0.04602159934538744</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1712858095874461</v>
+        <v>-0.09608148920108307</v>
       </c>
       <c r="C86">
-        <v>-0.5735563286937583</v>
+        <v>-0.007158933743385712</v>
       </c>
       <c r="D86">
-        <v>-0.7381783758818469</v>
+        <v>-0.022113377841606</v>
       </c>
       <c r="E86">
-        <v>-0.02781868819249277</v>
+        <v>0.152447840862992</v>
       </c>
       <c r="F86">
-        <v>-0.06802466593495146</v>
+        <v>-0.8678495364486866</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.112491739708773</v>
+        <v>-0.09854301666191005</v>
       </c>
       <c r="C87">
-        <v>-0.08247064054598929</v>
+        <v>0.02515428999290123</v>
       </c>
       <c r="D87">
-        <v>0.06998204399309585</v>
+        <v>-0.07640392051166821</v>
       </c>
       <c r="E87">
-        <v>0.02171861710005833</v>
+        <v>-0.05396563030152309</v>
       </c>
       <c r="F87">
-        <v>0.03350612273418722</v>
+        <v>0.07805308175679634</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05176428951915565</v>
+        <v>-0.06113384320122617</v>
       </c>
       <c r="C88">
-        <v>-0.02125302819528065</v>
+        <v>0.002834435289288718</v>
       </c>
       <c r="D88">
-        <v>0.05569563803914526</v>
+        <v>-0.05353047222035337</v>
       </c>
       <c r="E88">
-        <v>-0.05959395514933498</v>
+        <v>0.02771552921700803</v>
       </c>
       <c r="F88">
-        <v>0.0292891154692845</v>
+        <v>0.008931974586190066</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1918958696733167</v>
+        <v>-0.1359874961467834</v>
       </c>
       <c r="C89">
-        <v>0.3176148733839496</v>
+        <v>0.008509734082838439</v>
       </c>
       <c r="D89">
-        <v>-0.1835768235921908</v>
+        <v>0.257001761344613</v>
       </c>
       <c r="E89">
-        <v>0.05567662048249788</v>
+        <v>-0.09149607904864757</v>
       </c>
       <c r="F89">
-        <v>-0.02243743045177336</v>
+        <v>0.02290162056611315</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1497863476574205</v>
+        <v>-0.1462150329840664</v>
       </c>
       <c r="C90">
-        <v>0.2270567268964973</v>
+        <v>0.02593089657274631</v>
       </c>
       <c r="D90">
-        <v>-0.1185446460508541</v>
+        <v>0.2664471258294083</v>
       </c>
       <c r="E90">
-        <v>-0.0303673851405442</v>
+        <v>-0.1088354194204244</v>
       </c>
       <c r="F90">
-        <v>-0.004534931990124302</v>
+        <v>0.02265447588458285</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08020716841171022</v>
+        <v>-0.1187784719849425</v>
       </c>
       <c r="C91">
-        <v>-0.04273496245028378</v>
+        <v>0.01679528867064107</v>
       </c>
       <c r="D91">
-        <v>0.008957247712907908</v>
+        <v>0.007676023824164737</v>
       </c>
       <c r="E91">
-        <v>-0.006425680617793696</v>
+        <v>0.0579035369106718</v>
       </c>
       <c r="F91">
-        <v>0.03993131088360619</v>
+        <v>-0.01899378038999597</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1654446842884102</v>
+        <v>-0.1493876664524989</v>
       </c>
       <c r="C92">
-        <v>0.2711091972664301</v>
+        <v>0.01784395687230567</v>
       </c>
       <c r="D92">
-        <v>-0.1441598699921013</v>
+        <v>0.2969731535066218</v>
       </c>
       <c r="E92">
-        <v>0.03116303875450192</v>
+        <v>-0.1041788691950051</v>
       </c>
       <c r="F92">
-        <v>-0.02848553447420181</v>
+        <v>0.01819144548312917</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1522184598863847</v>
+        <v>-0.1508932484192008</v>
       </c>
       <c r="C93">
-        <v>0.2640018625014122</v>
+        <v>0.02248817024050989</v>
       </c>
       <c r="D93">
-        <v>-0.1743537336609361</v>
+        <v>0.2692632654164197</v>
       </c>
       <c r="E93">
-        <v>-0.05712033270647105</v>
+        <v>-0.07493332195047897</v>
       </c>
       <c r="F93">
-        <v>-0.01127526523246294</v>
+        <v>0.01679072268627715</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1333466015156289</v>
+        <v>-0.1330994044529757</v>
       </c>
       <c r="C94">
-        <v>-0.02206440718604186</v>
+        <v>0.02373356338475267</v>
       </c>
       <c r="D94">
-        <v>0.06075339468005016</v>
+        <v>-0.04607051944438682</v>
       </c>
       <c r="E94">
-        <v>0.0208560763368821</v>
+        <v>0.06152229283144633</v>
       </c>
       <c r="F94">
-        <v>0.03443116836562148</v>
+        <v>0.03205473163977045</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1128646559561716</v>
+        <v>-0.1254111612426277</v>
       </c>
       <c r="C95">
-        <v>-0.0218791928937982</v>
+        <v>0.005196337960159822</v>
       </c>
       <c r="D95">
-        <v>0.0501350005165873</v>
+        <v>-0.09031159735810816</v>
       </c>
       <c r="E95">
-        <v>0.04323219553738065</v>
+        <v>0.04428233977822404</v>
       </c>
       <c r="F95">
-        <v>0.04721238700349353</v>
+        <v>-0.01459199824732448</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01196212084686747</v>
+        <v>-0.09874631082931706</v>
       </c>
       <c r="C96">
-        <v>-0.001773213944020542</v>
+        <v>-0.9888793181312641</v>
       </c>
       <c r="D96">
-        <v>0.001128181185359895</v>
+        <v>0.0302986602080205</v>
       </c>
       <c r="E96">
-        <v>0.006968730659529057</v>
+        <v>0.05763755804035647</v>
       </c>
       <c r="F96">
-        <v>-0.004993782932921058</v>
+        <v>0.04768151132959023</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1746845141887946</v>
+        <v>-0.1879985445031458</v>
       </c>
       <c r="C97">
-        <v>-0.0810720246062505</v>
+        <v>-0.01087571777908555</v>
       </c>
       <c r="D97">
-        <v>0.1672153746350806</v>
+        <v>0.007117015153687459</v>
       </c>
       <c r="E97">
-        <v>0.04267233689799565</v>
+        <v>0.01817032276052579</v>
       </c>
       <c r="F97">
-        <v>-0.8818098349390058</v>
+        <v>-0.1764459395567447</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2447163528045963</v>
+        <v>-0.2052486231105876</v>
       </c>
       <c r="C98">
-        <v>-0.06176161130383545</v>
+        <v>0.007085784733219348</v>
       </c>
       <c r="D98">
-        <v>0.001459671349898448</v>
+        <v>-0.0102971708671076</v>
       </c>
       <c r="E98">
-        <v>0.07732956425651225</v>
+        <v>-0.09855968862549408</v>
       </c>
       <c r="F98">
-        <v>0.02399878180599543</v>
+        <v>-0.1112756423438974</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04386989974182752</v>
+        <v>-0.05597706272413237</v>
       </c>
       <c r="C99">
-        <v>0.02612167743322204</v>
+        <v>-0.003971172301330063</v>
       </c>
       <c r="D99">
-        <v>0.03308589600502592</v>
+        <v>-0.03598478664313861</v>
       </c>
       <c r="E99">
-        <v>0.02407639407663804</v>
+        <v>0.0264831357151822</v>
       </c>
       <c r="F99">
-        <v>0.02296615198643734</v>
+        <v>0.004053999163202599</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02382481629517153</v>
+        <v>-0.1239263102405784</v>
       </c>
       <c r="C100">
-        <v>0.01384039213825918</v>
+        <v>-0.05026904707769592</v>
       </c>
       <c r="D100">
-        <v>0.1407088242867452</v>
+        <v>-0.3472942851635277</v>
       </c>
       <c r="E100">
-        <v>-0.04270361136147528</v>
+        <v>-0.8945519566693778</v>
       </c>
       <c r="F100">
-        <v>-0.04671860909843906</v>
+        <v>-0.07601380559174543</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03186112983347887</v>
+        <v>-0.02723456231869159</v>
       </c>
       <c r="C101">
-        <v>-0.008992384148574405</v>
+        <v>0.008699594105518307</v>
       </c>
       <c r="D101">
-        <v>0.030506323172723</v>
+        <v>-0.03073775009345754</v>
       </c>
       <c r="E101">
-        <v>-0.0247441639745736</v>
+        <v>0.01160082886097273</v>
       </c>
       <c r="F101">
-        <v>0.0414945974856339</v>
+        <v>-0.01336745817372734</v>
       </c>
     </row>
     <row r="102" spans="1:6">
